--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3369594.461813432</v>
+        <v>3367217.834866066</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>314.6396679854046</v>
+        <v>35.9524543521409</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.7731592810854</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>56.30830983498181</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>104.2561659302077</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.422775988213</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.1442122221694</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4496987473621</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>47.09132058709797</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110045</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722602</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572454104</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>38.95525409458222</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>163.9171048773177</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.902695549579</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C2" t="n">
-        <v>745.9401786091678</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D2" t="n">
-        <v>387.6744800024173</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251366</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331018</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081673</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>767.0814070827661</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>767.0814070827661</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>767.0814070827661</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>619.168313500373</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>472.2783660024626</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>767.0814070827661</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>767.0814070827661</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>767.0814070827661</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>742.878294495355</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>373.9157775549433</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>373.9157775549433</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549433</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2457.030069884794</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2203.449009148973</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1872.386121805403</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1519.617466535288</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1519.617466535288</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1129.478134559477</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.6531669530525</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>472.6531669530525</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>472.6531669530525</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>472.6531669530525</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>472.6531669530525</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880304</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>700.6427178510698</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>472.6531669530525</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.6531669530525</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496364</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7592778092247</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>105.7592778092247</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7592778092247</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>98.81377706002125</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137582</v>
+        <v>1416.181083656474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
         <v>51.2467865680031</v>
@@ -4960,7 +4960,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452619</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349509</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061502</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.067041434951</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616109</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
         <v>388.6197041282753</v>
@@ -5659,25 +5659,25 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154528</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>274.8772357154528</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>274.8772357154528</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1654045576509</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,13 +6315,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,19 +7412,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>255.8421700460954</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-5.302798671987058e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.533687599287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556067</v>
       </c>
       <c r="I22" t="n">
-        <v>42.31058222398331</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>53.48834544997061</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>712335.1449660739</v>
+        <v>712335.1449660738</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,37 +26424,37 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732043</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732077</v>
+        <v>8117.312426731973</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732035</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731985</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731954</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426732</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26522,46 +26522,46 @@
         <v>-603069.9633997735</v>
       </c>
       <c r="C6" t="n">
-        <v>511681.820176146</v>
+        <v>511681.8201761462</v>
       </c>
       <c r="D6" t="n">
         <v>511681.820176146</v>
       </c>
       <c r="E6" t="n">
-        <v>109706.655845821</v>
+        <v>109671.9179203843</v>
       </c>
       <c r="F6" t="n">
-        <v>617192.0974703662</v>
+        <v>617157.3595449309</v>
       </c>
       <c r="G6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="H6" t="n">
-        <v>617192.097470366</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="I6" t="n">
-        <v>617192.0974703664</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="J6" t="n">
-        <v>449586.9196603834</v>
+        <v>449552.1817349484</v>
       </c>
       <c r="K6" t="n">
-        <v>617192.0974703664</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="L6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449303</v>
       </c>
       <c r="M6" t="n">
-        <v>484584.8037414394</v>
+        <v>484550.0658160041</v>
       </c>
       <c r="N6" t="n">
-        <v>617192.0974703664</v>
+        <v>617157.3595449309</v>
       </c>
       <c r="O6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="P6" t="n">
-        <v>617192.0974703665</v>
+        <v>617157.359544931</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>67.29070208685721</v>
+        <v>345.9779157201209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>1.533440763718772</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4020190500261</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.308324690256</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>1.162387822634741</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.8231930236454</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>364.456382185856</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386501002</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227457</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.868909745143369e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32318,31 +32318,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897666</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>553.5225306839455</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875417</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098925</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
